--- a/excel/13a_portfolios_theory.xlsx
+++ b/excel/13a_portfolios_theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D949D32C-D1B5-4C3C-955E-DE7072B7A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A34BC2-23C1-40F4-9E72-456A90F5FCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{0B84ED1C-152F-4018-BB72-2914F97B7C0B}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="Tangency" sheetId="2" r:id="rId1"/>
     <sheet name="CAL" sheetId="4" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
     <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
@@ -231,7 +228,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="23">
   <si>
     <t>Finding Tangency Portfolio Using Solver</t>
   </si>
@@ -291,6 +288,15 @@
   </si>
   <si>
     <t>Bond Fund</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>Excess Returns</t>
+  </si>
+  <si>
+    <t>Solving system of equations:</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -554,9 +560,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -595,14 +598,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2916,1055 +2920,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Portfolio Stats"/>
-      <sheetName val="N=2 BruteForce"/>
-      <sheetName val="N=3 BruteForce"/>
-      <sheetName val="Frontier"/>
-      <sheetName val="GMV"/>
-      <sheetName val="Tangency"/>
-      <sheetName val="5.5.2 MCSI MktCaps"/>
-      <sheetName val="CAL"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="17">
-          <cell r="F17">
-            <v>7.8000000000000014E-2</v>
-          </cell>
-          <cell r="H17">
-            <v>0.20049563586272892</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>7.5999999999999998E-2</v>
-          </cell>
-          <cell r="H18">
-            <v>0.19153067639414839</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>7.3999999999999996E-2</v>
-          </cell>
-          <cell r="H19">
-            <v>0.18318433339125917</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>7.2000000000000008E-2</v>
-          </cell>
-          <cell r="H20">
-            <v>0.17554486605993352</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="H21">
-            <v>0.16870832818802989</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>6.8000000000000005E-2</v>
-          </cell>
-          <cell r="H22">
-            <v>0.16277591959500642</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="H23">
-            <v>0.15784961197291553</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>6.4000000000000001E-2</v>
-          </cell>
-          <cell r="H24">
-            <v>0.1540259718359212</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="H25">
-            <v>0.15138857288448163</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>0.06</v>
-          </cell>
-          <cell r="H26">
-            <v>0.15</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>7.6499999999999999E-2</v>
-          </cell>
-          <cell r="H27">
-            <v>0.19243310525998378</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>7.4500000000000011E-2</v>
-          </cell>
-          <cell r="H28">
-            <v>0.18378520070995924</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>7.2500000000000009E-2</v>
-          </cell>
-          <cell r="H29">
-            <v>0.17581382198223208</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>7.0500000000000007E-2</v>
-          </cell>
-          <cell r="H30">
-            <v>0.16861494595675675</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>6.8500000000000005E-2</v>
-          </cell>
-          <cell r="H31">
-            <v>0.16229140457830785</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>6.6500000000000004E-2</v>
-          </cell>
-          <cell r="H32">
-            <v>0.15694903631433993</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>6.4500000000000002E-2</v>
-          </cell>
-          <cell r="H33">
-            <v>0.15269086416678634</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="F34">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="H34">
-            <v>0.14960949167750018</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="F35">
-            <v>6.0499999999999998E-2</v>
-          </cell>
-          <cell r="H35">
-            <v>0.14777855054100375</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="F36">
-            <v>5.8500000000000003E-2</v>
-          </cell>
-          <cell r="H36">
-            <v>0.14724469430169632</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="F37">
-            <v>7.4999999999999997E-2</v>
-          </cell>
-          <cell r="H37">
-            <v>0.18506620437021989</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="F38">
-            <v>7.3000000000000009E-2</v>
-          </cell>
-          <cell r="H38">
-            <v>0.17679649317789084</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="F39">
-            <v>7.0999999999999994E-2</v>
-          </cell>
-          <cell r="H39">
-            <v>0.16926753971154657</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="F40">
-            <v>6.9000000000000006E-2</v>
-          </cell>
-          <cell r="H40">
-            <v>0.16258228685807072</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="F41">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-          <cell r="H41">
-            <v>0.15684865316603774</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="F42">
-            <v>6.5000000000000002E-2</v>
-          </cell>
-          <cell r="H42">
-            <v>0.15217424223566878</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="F43">
-            <v>6.3E-2</v>
-          </cell>
-          <cell r="H43">
-            <v>0.14865900578168817</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="F44">
-            <v>6.0999999999999999E-2</v>
-          </cell>
-          <cell r="H44">
-            <v>0.14638647478507022</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="F45">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="H45">
-            <v>0.14541492358076596</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="F46">
-            <v>5.6999999999999995E-2</v>
-          </cell>
-          <cell r="H46">
-            <v>0.14577036735907611</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="F47">
-            <v>7.350000000000001E-2</v>
-          </cell>
-          <cell r="H47">
-            <v>0.17848109143547949</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="F48">
-            <v>7.1500000000000008E-2</v>
-          </cell>
-          <cell r="H48">
-            <v>0.1706575518399347</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="F49">
-            <v>6.9500000000000006E-2</v>
-          </cell>
-          <cell r="H49">
-            <v>0.16364443161928852</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="F50">
-            <v>6.7500000000000004E-2</v>
-          </cell>
-          <cell r="H50">
-            <v>0.15754999206601059</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="F51">
-            <v>6.5500000000000003E-2</v>
-          </cell>
-          <cell r="H51">
-            <v>0.15248442543420623</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="F52">
-            <v>6.3500000000000001E-2</v>
-          </cell>
-          <cell r="H52">
-            <v>0.14855302083767935</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="F53">
-            <v>6.1500000000000006E-2</v>
-          </cell>
-          <cell r="H53">
-            <v>0.14584752311918089</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="F54">
-            <v>5.9499999999999997E-2</v>
-          </cell>
-          <cell r="H54">
-            <v>0.14443683740652866</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="F55">
-            <v>5.7500000000000002E-2</v>
-          </cell>
-          <cell r="H55">
-            <v>0.14435892767681535</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="F56">
-            <v>5.5499999999999994E-2</v>
-          </cell>
-          <cell r="H56">
-            <v>0.14561593319413918</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="F57">
-            <v>7.2000000000000008E-2</v>
-          </cell>
-          <cell r="H57">
-            <v>0.17276718438407221</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="F58">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="H58">
-            <v>0.16546298679765212</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="F59">
-            <v>6.8000000000000005E-2</v>
-          </cell>
-          <cell r="H59">
-            <v>0.15904244716427121</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="F60">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="H60">
-            <v>0.15361640537390528</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="F61">
-            <v>6.4000000000000001E-2</v>
-          </cell>
-          <cell r="H61">
-            <v>0.14929333541722484</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="F62">
-            <v>6.2000000000000006E-2</v>
-          </cell>
-          <cell r="H62">
-            <v>0.14617113258095801</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="F63">
-            <v>0.06</v>
-          </cell>
-          <cell r="H63">
-            <v>0.14432775200909906</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="F64">
-            <v>5.8000000000000003E-2</v>
-          </cell>
-          <cell r="H64">
-            <v>0.14381237777048261</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="F65">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-          <cell r="H65">
-            <v>0.1446392063031321</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="F66">
-            <v>5.3999999999999992E-2</v>
-          </cell>
-          <cell r="H66">
-            <v>0.14678555787270081</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="F67">
-            <v>7.0500000000000007E-2</v>
-          </cell>
-          <cell r="H67">
-            <v>0.16801339232335025</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="F68">
-            <v>6.8500000000000005E-2</v>
-          </cell>
-          <cell r="H68">
-            <v>0.16130406070524078</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="F69">
-            <v>6.6500000000000004E-2</v>
-          </cell>
-          <cell r="H69">
-            <v>0.15555224202820092</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="F70">
-            <v>6.4500000000000002E-2</v>
-          </cell>
-          <cell r="H70">
-            <v>0.1508674915281619</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="F71">
-            <v>6.25E-2</v>
-          </cell>
-          <cell r="H71">
-            <v>0.14735162028291376</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="F72">
-            <v>6.0499999999999998E-2</v>
-          </cell>
-          <cell r="H72">
-            <v>0.14508962747212498</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="F73">
-            <v>5.8500000000000003E-2</v>
-          </cell>
-          <cell r="H73">
-            <v>0.14414055640242268</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="F74">
-            <v>5.6499999999999995E-2</v>
-          </cell>
-          <cell r="H74">
-            <v>0.14453027364535087</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="F75">
-            <v>5.4499999999999993E-2</v>
-          </cell>
-          <cell r="H75">
-            <v>0.14624807691043326</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="F76">
-            <v>5.2499999999999998E-2</v>
-          </cell>
-          <cell r="H76">
-            <v>0.14924811556599302</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="F77">
-            <v>6.9000000000000006E-2</v>
-          </cell>
-          <cell r="H77">
-            <v>0.16430307361702032</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="F78">
-            <v>6.7000000000000004E-2</v>
-          </cell>
-          <cell r="H78">
-            <v>0.15826244026931977</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="F79">
-            <v>6.5000000000000002E-2</v>
-          </cell>
-          <cell r="H79">
-            <v>0.15324979608469305</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="F80">
-            <v>6.3E-2</v>
-          </cell>
-          <cell r="H80">
-            <v>0.14936867141405524</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="F81">
-            <v>6.0999999999999999E-2</v>
-          </cell>
-          <cell r="H81">
-            <v>0.14670889543582555</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="F82">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="H82">
-            <v>0.1453375381654719</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="F83">
-            <v>5.7000000000000002E-2</v>
-          </cell>
-          <cell r="H83">
-            <v>0.14529108713200545</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="F84">
-            <v>5.4999999999999993E-2</v>
-          </cell>
-          <cell r="H84">
-            <v>0.14657080200367328</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="F85">
-            <v>5.2999999999999992E-2</v>
-          </cell>
-          <cell r="H85">
-            <v>0.14914254926076595</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="F86">
-            <v>5.0999999999999997E-2</v>
-          </cell>
-          <cell r="H86">
-            <v>0.15294116515837061</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="F87">
-            <v>6.7500000000000004E-2</v>
-          </cell>
-          <cell r="H87">
-            <v>0.16170807029953699</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="F88">
-            <v>6.5500000000000003E-2</v>
-          </cell>
-          <cell r="H88">
-            <v>0.15640332477284491</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="F89">
-            <v>6.3500000000000001E-2</v>
-          </cell>
-          <cell r="H89">
-            <v>0.15218902719972952</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="F90">
-            <v>6.1499999999999999E-2</v>
-          </cell>
-          <cell r="H90">
-            <v>0.14915763473587265</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="F91">
-            <v>5.9500000000000004E-2</v>
-          </cell>
-          <cell r="H91">
-            <v>0.14738215631479953</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="F92">
-            <v>5.7500000000000002E-2</v>
-          </cell>
-          <cell r="H92">
-            <v>0.14690813456034355</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="F93">
-            <v>5.5499999999999994E-2</v>
-          </cell>
-          <cell r="H93">
-            <v>0.14774809643443804</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="F94">
-            <v>5.3499999999999992E-2</v>
-          </cell>
-          <cell r="H94">
-            <v>0.14987995196156154</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="F95">
-            <v>5.1499999999999997E-2</v>
-          </cell>
-          <cell r="H95">
-            <v>0.15324979608469308</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="F96">
-            <v>4.9500000000000002E-2</v>
-          </cell>
-          <cell r="H96">
-            <v>0.15777832550765647</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="F97">
-            <v>6.6000000000000003E-2</v>
-          </cell>
-          <cell r="H97">
-            <v>0.16028256299423219</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="F98">
-            <v>6.4000000000000001E-2</v>
-          </cell>
-          <cell r="H98">
-            <v>0.15576905982896605</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="F99">
-            <v>6.2E-2</v>
-          </cell>
-          <cell r="H99">
-            <v>0.15239586608566522</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="F100">
-            <v>6.0000000000000005E-2</v>
-          </cell>
-          <cell r="H100">
-            <v>0.15023980830658698</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="F101">
-            <v>5.7999999999999996E-2</v>
-          </cell>
-          <cell r="H101">
-            <v>0.14935360725472954</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="F102">
-            <v>5.5999999999999994E-2</v>
-          </cell>
-          <cell r="H102">
-            <v>0.14975980769218422</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="F103">
-            <v>5.3999999999999992E-2</v>
-          </cell>
-          <cell r="H103">
-            <v>0.15144801088162235</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="F104">
-            <v>5.1999999999999998E-2</v>
-          </cell>
-          <cell r="H104">
-            <v>0.15437616396322329</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="F105">
-            <v>0.05</v>
-          </cell>
-          <cell r="H105">
-            <v>0.15847555016468626</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="F106">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="H106">
-            <v>0.16365818036383026</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="F107">
-            <v>6.4500000000000002E-2</v>
-          </cell>
-          <cell r="H107">
-            <v>0.16005780205913114</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="F108">
-            <v>6.2500000000000014E-2</v>
-          </cell>
-          <cell r="H108">
-            <v>0.15637455035906578</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="F109">
-            <v>6.0500000000000005E-2</v>
-          </cell>
-          <cell r="H109">
-            <v>0.1538652007440279</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="F110">
-            <v>5.8499999999999996E-2</v>
-          </cell>
-          <cell r="H110">
-            <v>0.15258767971235423</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="F111">
-            <v>5.6499999999999995E-2</v>
-          </cell>
-          <cell r="H111">
-            <v>0.15257293337941694</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="F112">
-            <v>5.4499999999999993E-2</v>
-          </cell>
-          <cell r="H112">
-            <v>0.15382132491953124</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="F113">
-            <v>5.2499999999999998E-2</v>
-          </cell>
-          <cell r="H113">
-            <v>0.15630259114934725</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="F114">
-            <v>5.0500000000000003E-2</v>
-          </cell>
-          <cell r="H114">
-            <v>0.15995936984121936</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="F115">
-            <v>4.8500000000000001E-2</v>
-          </cell>
-          <cell r="H115">
-            <v>0.16471338743405164</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="F116">
-            <v>4.6499999999999986E-2</v>
-          </cell>
-          <cell r="H116">
-            <v>0.17047287174210449</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="F117">
-            <v>6.3000000000000014E-2</v>
-          </cell>
-          <cell r="H117">
-            <v>0.16103881519683383</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="F118">
-            <v>6.0999999999999999E-2</v>
-          </cell>
-          <cell r="H118">
-            <v>0.15820556248122253</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="F119">
-            <v>5.8999999999999997E-2</v>
-          </cell>
-          <cell r="H119">
-            <v>0.15656148951769716</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="F120">
-            <v>5.6999999999999995E-2</v>
-          </cell>
-          <cell r="H120">
-            <v>0.15614416415607726</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="F121">
-            <v>5.5E-2</v>
-          </cell>
-          <cell r="H121">
-            <v>0.15696337152342266</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="F122">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-          <cell r="H122">
-            <v>0.159</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="F123">
-            <v>5.1000000000000004E-2</v>
-          </cell>
-          <cell r="H123">
-            <v>0.16220819954613885</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="F124">
-            <v>4.9000000000000002E-2</v>
-          </cell>
-          <cell r="H124">
-            <v>0.166520269036535</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="F125">
-            <v>4.6999999999999986E-2</v>
-          </cell>
-          <cell r="H125">
-            <v>0.17185313497285989</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="F126">
-            <v>4.4999999999999998E-2</v>
-          </cell>
-          <cell r="H126">
-            <v>0.17811513130556877</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5">
-        <row r="22">
-          <cell r="G22">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="I22">
-            <v>0.19123806807416452</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>5.0000000033211645E-2</v>
-          </cell>
-          <cell r="I23">
-            <v>0.15464093612868773</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>6.0000049830110133E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>0.1443271229025587</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>7.0000056986267545E-2</v>
-          </cell>
-          <cell r="I25">
-            <v>0.1652922715636653</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>7.9999999897954852E-2</v>
-          </cell>
-          <cell r="I26">
-            <v>0.20829618878066841</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>6.6306263503140589E-2</v>
-          </cell>
-          <cell r="I29">
-            <v>0.15430055364876635</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7">
-        <row r="22">
-          <cell r="G22">
-            <v>4.0000000000000036E-2</v>
-          </cell>
-          <cell r="I22">
-            <v>0.19123806807416452</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="G23">
-            <v>5.0000000033211645E-2</v>
-          </cell>
-          <cell r="I23">
-            <v>0.15464093612868773</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="G24">
-            <v>6.0000049830110133E-2</v>
-          </cell>
-          <cell r="I24">
-            <v>0.1443271229025587</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="G25">
-            <v>7.0000056986267545E-2</v>
-          </cell>
-          <cell r="I25">
-            <v>0.1652922715636653</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="G26">
-            <v>7.9999999897954852E-2</v>
-          </cell>
-          <cell r="I26">
-            <v>0.20829618878066841</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="G29">
-            <v>6.6306263503140589E-2</v>
-          </cell>
-          <cell r="I29">
-            <v>0.15430055364876635</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>4.7999999999999996E-3</v>
-          </cell>
-          <cell r="F32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>2.509706695603639E-2</v>
-          </cell>
-          <cell r="F33">
-            <v>5.0919182704092888E-2</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>4.6009196547104191E-2</v>
-          </cell>
-          <cell r="F34">
-            <v>0.10338137094467345</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>6.6306263503140589E-2</v>
-          </cell>
-          <cell r="F35">
-            <v>0.15430055364876635</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>8.660333045917698E-2</v>
-          </cell>
-          <cell r="F36">
-            <v>0.20521973635285926</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4384,7 +3339,7 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="44">
         <v>0.02</v>
       </c>
       <c r="I11" s="17"/>
@@ -4398,54 +3353,54 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="50"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="45">
         <v>0.13203429912742795</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="45">
         <v>0.86796570087257197</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <f>SUM(C16:D16)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <f>SUMPRODUCT(C16:D16,$C$4:$D$4)</f>
         <v>3.83008574781857E-2</v>
       </c>
@@ -4453,11 +3408,11 @@
         <f t="array" ref="G16">MMULT(C16:D16,MMULT($C$8:$D$9,TRANSPOSE(C16:D16)))</f>
         <v>1.2549495716381264E-3</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <f t="shared" ref="H16" si="0">SQRT(G16)</f>
         <v>3.5425267418018547E-2</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f>(F16-$C$11)/H16</f>
         <v>0.51660463878043261</v>
       </c>
@@ -4480,90 +3435,90 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="50"/>
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="49">
+      <c r="B21" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="29">
         <v>-0.4</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <f>1-C21</f>
         <v>1.4</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f>SUM(C21:D21)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <f>SUMPRODUCT(C21:D21,$C$4:$D$4)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <f t="array" ref="G21">MMULT(C21:D21,MMULT($C$8:$D$9,TRANSPOSE(C21:D21)))</f>
         <v>6.2950000000000002E-3</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <f t="shared" ref="H21:H28" si="1">SQRT(G21)</f>
         <v>7.9341036040626547E-2</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <f>(F21-$C$11)/H21</f>
         <v>6.3019091374604097E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="50">
+      <c r="B22" s="47">
         <v>0.03</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <f>C21+20%</f>
         <v>-0.2</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <f>1-C22</f>
         <v>1.2</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <f>SUM(C22:D22)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <f>SUMPRODUCT(C22:D22,$C$4:$D$4)</f>
         <v>3.0000000000000002E-2</v>
       </c>
@@ -4571,32 +3526,32 @@
         <f t="array" ref="G22">MMULT(C22:D22,MMULT($C$8:$D$9,TRANSPOSE(C22:D22)))</f>
         <v>2.7899999999999999E-3</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <f t="shared" ref="H22" si="2">SQRT(G22)</f>
         <v>5.282045058497703E-2</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <f>(F22-$C$11)/H22</f>
         <v>0.18932061141568829</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="50">
+      <c r="B23" s="47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <f t="shared" ref="C23:C27" si="3">C22+20%</f>
         <v>0</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <f t="shared" ref="D23:D27" si="4">1-C23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <f t="shared" ref="E23:E27" si="5">SUM(C23:D23)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <f t="shared" ref="F23:F27" si="6">SUMPRODUCT(C23:D23,$C$4:$D$4)</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -4604,32 +3559,32 @@
         <f t="array" ref="G23">MMULT(C23:D23,MMULT($C$8:$D$9,TRANSPOSE(C23:D23)))</f>
         <v>1.2250000000000002E-3</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <f t="shared" ref="H23:H27" si="7">SQRT(G23)</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" ref="I23:I27" si="8">(F23-$C$11)/H23</f>
         <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="50">
+      <c r="B24" s="47">
         <v>0.04</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <f t="shared" si="6"/>
         <v>4.0000000000000008E-2</v>
       </c>
@@ -4637,32 +3592,32 @@
         <f t="array" ref="G24">MMULT(C24:D24,MMULT($C$8:$D$9,TRANSPOSE(C24:D24)))</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <f t="shared" si="7"/>
         <v>0.04</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <f t="shared" si="8"/>
         <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="50">
+      <c r="B25" s="47">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <f t="shared" si="6"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -4670,32 +3625,32 @@
         <f t="array" ref="G25">MMULT(C25:D25,MMULT($C$8:$D$9,TRANSPOSE(C25:D25)))</f>
         <v>3.9150000000000001E-3</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <f t="shared" si="7"/>
         <v>6.2569960843842629E-2</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <f t="shared" si="8"/>
         <v>0.39955275123782008</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="50">
+      <c r="B26" s="47">
         <v>0.05</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <f t="shared" si="3"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <f t="shared" si="4"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <f t="shared" si="6"/>
         <v>0.05</v>
       </c>
@@ -4703,32 +3658,32 @@
         <f t="array" ref="G26">MMULT(C26:D26,MMULT($C$8:$D$9,TRANSPOSE(C26:D26)))</f>
         <v>8.1700000000000019E-3</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <f t="shared" si="7"/>
         <v>9.0388052307813355E-2</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="32">
         <f t="shared" si="8"/>
         <v>0.33190227285610768</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="50">
+      <c r="B27" s="47">
         <v>5.5E-2</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <f t="shared" si="4"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <f t="shared" si="6"/>
         <v>5.5E-2</v>
       </c>
@@ -4736,75 +3691,75 @@
         <f t="array" ref="G27">MMULT(C27:D27,MMULT($C$8:$D$9,TRANSPOSE(C27:D27)))</f>
         <v>1.4364999999999999E-2</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <f t="shared" si="7"/>
         <v>0.11985407794480753</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f t="shared" si="8"/>
         <v>0.29202177014049874</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="51">
+      <c r="B28" s="48">
         <v>0.06</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>1</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <f>1-C28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f>SUM(C28:D28)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <f>SUMPRODUCT(C28:D28,$C$4:$D$4)</f>
         <v>0.06</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="34">
         <f t="array" ref="G28">MMULT(C28:D28,MMULT($C$8:$D$9,TRANSPOSE(C28:D28)))</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="I28" s="36">
-        <f t="shared" ref="I26:I28" si="9">(F28-$C$11)/H28</f>
+      <c r="I28" s="35">
+        <f t="shared" ref="I28" si="9">(F28-$C$11)/H28</f>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="17"/>
     </row>
     <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4812,13 +3767,13 @@
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="45">
         <v>0.13203429912742795</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="45">
         <v>0.86796570087257197</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <f>SUM(C31:D31)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -4826,7 +3781,7 @@
         <f>SUMPRODUCT(C31:D31,$C$4:$D$4)</f>
         <v>3.83008574781857E-2</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <f t="array" ref="G31">MMULT(C31:D31,MMULT($C$8:$D$9,TRANSPOSE(C31:D31)))</f>
         <v>1.2549495716381264E-3</v>
       </c>
@@ -4840,819 +3795,859 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="F34" s="25"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="17"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="17"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="F37" s="25"/>
       <c r="G37" s="17"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="17"/>
-      <c r="H39" s="26"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="17"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="26"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="F49" s="26"/>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="F50" s="26"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="26"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="F51" s="26"/>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="26"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="F52" s="26"/>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="26"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="F53" s="26"/>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="26"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="F54" s="26"/>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="26"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="F55" s="26"/>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="26"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="F56" s="26"/>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="26"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="F57" s="26"/>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="25">
+        <f>C4-$C$11</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="D57" s="25">
+        <f>D4-$C$11</f>
+        <v>1.5000000000000003E-2</v>
+      </c>
+      <c r="E57" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D57)</f>
+        <v>=D4-$C$11</v>
+      </c>
+      <c r="F57" s="25"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="26"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="F58" s="26"/>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="11">
+        <f t="array" ref="C58:D58">MMULT(C57:D57,MINVERSE(C8:D9))</f>
+        <v>1.925448541989895</v>
+      </c>
+      <c r="D58" s="11">
+        <v>12.657494075324367</v>
+      </c>
+      <c r="E58" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C58)</f>
+        <v>{=MMULT(C57:D57,MINVERSE(C8:D9))}</v>
+      </c>
+      <c r="F58" s="25"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="26"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="F59" s="26"/>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="26">
+        <f>C58/SUM($C$58:$D$58)</f>
+        <v>0.13203429462197969</v>
+      </c>
+      <c r="D59" s="26">
+        <f>D58/SUM($C$58:$D$58)</f>
+        <v>0.8679657053780202</v>
+      </c>
+      <c r="E59" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(D59)</f>
+        <v>=D58/SUM($C$58:$D$58)</v>
+      </c>
+      <c r="F59" s="25"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="F60" s="26"/>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="25"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="17"/>
-      <c r="H60" s="26"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="F61" s="26"/>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="26"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="F62" s="26"/>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="26"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="F63" s="26"/>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="26"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="17"/>
     </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="F64" s="26"/>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="26"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="F65" s="26"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="26"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="F66" s="26"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="F67" s="26"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="26"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="F68" s="26"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="26"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="F69" s="26"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="26"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="17"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="F70" s="26"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="26"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="F71" s="26"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="26"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="17"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="26"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="17"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="26"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="17"/>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="26"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="17"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="26"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="17"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="26"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="17"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="26"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="17"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="F78" s="26"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="26"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="26"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="17"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="F80" s="26"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="F80" s="25"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="26"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="17"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="F81" s="26"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="26"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="17"/>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="F83" s="26"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="17"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="F84" s="26"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="26"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="17"/>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="F85" s="26"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="17"/>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="F86" s="26"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="26"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="26"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="F88" s="26"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="26"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="F89" s="26"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="26"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="F90" s="26"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="26"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="F91" s="26"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="26"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="17"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="26"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="F93" s="26"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="26"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="17"/>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="F94" s="26"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="26"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="17"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="F95" s="26"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="26"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="17"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="F96" s="26"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="26"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="17"/>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="F97" s="26"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="17"/>
-      <c r="H97" s="26"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="17"/>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="F98" s="26"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="26"/>
+      <c r="H98" s="25"/>
       <c r="I98" s="17"/>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="F99" s="26"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="F99" s="25"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="26"/>
+      <c r="H99" s="25"/>
       <c r="I99" s="17"/>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="F100" s="25"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="26"/>
+      <c r="H100" s="25"/>
       <c r="I100" s="17"/>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="F101" s="25"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="26"/>
+      <c r="H101" s="25"/>
       <c r="I101" s="17"/>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="F102" s="26"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="F102" s="25"/>
       <c r="G102" s="17"/>
-      <c r="H102" s="26"/>
+      <c r="H102" s="25"/>
       <c r="I102" s="17"/>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="F103" s="26"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="26"/>
+      <c r="H103" s="25"/>
       <c r="I103" s="17"/>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="F104" s="26"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="17"/>
-      <c r="H104" s="26"/>
+      <c r="H104" s="25"/>
       <c r="I104" s="17"/>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="F105" s="26"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="26"/>
+      <c r="H105" s="25"/>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="F106" s="26"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="F106" s="25"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="26"/>
+      <c r="H106" s="25"/>
       <c r="I106" s="17"/>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="F107" s="26"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="26"/>
+      <c r="H107" s="25"/>
       <c r="I107" s="17"/>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="F108" s="26"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="F108" s="25"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="26"/>
+      <c r="H108" s="25"/>
       <c r="I108" s="17"/>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="F109" s="26"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="F109" s="25"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="26"/>
+      <c r="H109" s="25"/>
       <c r="I109" s="17"/>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="F110" s="26"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="F110" s="25"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="26"/>
+      <c r="H110" s="25"/>
       <c r="I110" s="17"/>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="F111" s="26"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="F111" s="25"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="26"/>
+      <c r="H111" s="25"/>
       <c r="I111" s="17"/>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="F112" s="26"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="26"/>
+      <c r="H112" s="25"/>
       <c r="I112" s="17"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="F113" s="26"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="F113" s="25"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="26"/>
+      <c r="H113" s="25"/>
       <c r="I113" s="17"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="F114" s="26"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="F114" s="25"/>
       <c r="G114" s="17"/>
-      <c r="H114" s="26"/>
+      <c r="H114" s="25"/>
       <c r="I114" s="17"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="F115" s="26"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="F115" s="25"/>
       <c r="G115" s="17"/>
-      <c r="H115" s="26"/>
+      <c r="H115" s="25"/>
       <c r="I115" s="17"/>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="F116" s="26"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="F116" s="25"/>
       <c r="G116" s="17"/>
-      <c r="H116" s="26"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="17"/>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="F117" s="26"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="F117" s="25"/>
       <c r="G117" s="17"/>
-      <c r="H117" s="26"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="17"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="F118" s="26"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="26"/>
+      <c r="H118" s="25"/>
       <c r="I118" s="17"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="F119" s="26"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="F119" s="25"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="26"/>
+      <c r="H119" s="25"/>
       <c r="I119" s="17"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="F120" s="26"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="F120" s="25"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="26"/>
+      <c r="H120" s="25"/>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="F121" s="26"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="F121" s="25"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="26"/>
+      <c r="H121" s="25"/>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="F122" s="26"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="17"/>
-      <c r="H122" s="26"/>
+      <c r="H122" s="25"/>
       <c r="I122" s="17"/>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="F123" s="26"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="F123" s="25"/>
       <c r="G123" s="17"/>
-      <c r="H123" s="26"/>
+      <c r="H123" s="25"/>
       <c r="I123" s="17"/>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="F124" s="26"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="F124" s="25"/>
       <c r="G124" s="17"/>
-      <c r="H124" s="26"/>
+      <c r="H124" s="25"/>
       <c r="I124" s="17"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="F125" s="26"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="F125" s="25"/>
       <c r="G125" s="17"/>
-      <c r="H125" s="26"/>
+      <c r="H125" s="25"/>
       <c r="I125" s="17"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="F126" s="26"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="F126" s="25"/>
       <c r="G126" s="17"/>
-      <c r="H126" s="26"/>
+      <c r="H126" s="25"/>
       <c r="I126" s="17"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="F127" s="26"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="F127" s="25"/>
       <c r="G127" s="17"/>
-      <c r="H127" s="26"/>
+      <c r="H127" s="25"/>
       <c r="I127" s="17"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="F128" s="26"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="F128" s="25"/>
       <c r="G128" s="17"/>
-      <c r="H128" s="26"/>
+      <c r="H128" s="25"/>
       <c r="I128" s="17"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="F129" s="26"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="F129" s="25"/>
       <c r="G129" s="17"/>
-      <c r="H129" s="26"/>
+      <c r="H129" s="25"/>
       <c r="I129" s="17"/>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="F130" s="26"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="F130" s="25"/>
       <c r="G130" s="17"/>
-      <c r="H130" s="26"/>
+      <c r="H130" s="25"/>
       <c r="I130" s="17"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="F131" s="26"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="F131" s="25"/>
       <c r="G131" s="17"/>
-      <c r="H131" s="26"/>
+      <c r="H131" s="25"/>
       <c r="I131" s="17"/>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="F132" s="26"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="F132" s="25"/>
       <c r="G132" s="17"/>
-      <c r="H132" s="26"/>
+      <c r="H132" s="25"/>
       <c r="I132" s="17"/>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="F133" s="26"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="F133" s="25"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="26"/>
+      <c r="H133" s="25"/>
       <c r="I133" s="17"/>
     </row>
   </sheetData>
@@ -5769,7 +4764,7 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="44">
         <v>0.02</v>
       </c>
       <c r="I11" s="17"/>
@@ -5783,54 +4778,54 @@
       <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="22"/>
+      <c r="D14" s="50"/>
       <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:10" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="23" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="45">
         <v>0.13203429912742795</v>
       </c>
-      <c r="D16" s="47">
+      <c r="D16" s="45">
         <v>0.86796570087257197</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="25">
         <f>SUM(C16:D16)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <f>SUMPRODUCT(C16:D16,$C$4:$D$4)</f>
         <v>3.83008574781857E-2</v>
       </c>
@@ -5838,11 +4833,11 @@
         <f t="array" ref="G16">MMULT(C16:D16,MMULT($C$8:$D$9,TRANSPOSE(C16:D16)))</f>
         <v>1.2549495716381264E-3</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <f t="shared" ref="H16" si="0">SQRT(G16)</f>
         <v>3.5425267418018547E-2</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="26">
         <f>(F16-$C$11)/H16</f>
         <v>0.51660463878043261</v>
       </c>
@@ -5865,90 +4860,90 @@
       <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:12" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="50"/>
       <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="28" t="s">
+      <c r="F20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="49">
+      <c r="B21" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="29">
         <v>-0.4</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="29">
         <f>1-C21</f>
         <v>1.4</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <f>SUM(C21:D21)</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="29">
         <f>SUMPRODUCT(C21:D21,$C$4:$D$4)</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <f t="array" ref="G21">MMULT(C21:D21,MMULT($C$8:$D$9,TRANSPOSE(C21:D21)))</f>
         <v>6.2950000000000002E-3</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="29">
         <f t="shared" ref="H21:H28" si="1">SQRT(G21)</f>
         <v>7.9341036040626547E-2</v>
       </c>
-      <c r="I21" s="32">
+      <c r="I21" s="31">
         <f>(F21-$C$11)/H21</f>
         <v>6.3019091374604097E-2</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="50">
+      <c r="B22" s="47">
         <v>0.03</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="25">
         <f>C21+20%</f>
         <v>-0.2</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="25">
         <f>1-C22</f>
         <v>1.2</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="25">
         <f>SUM(C22:D22)</f>
         <v>1</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="25">
         <f>SUMPRODUCT(C22:D22,$C$4:$D$4)</f>
         <v>3.0000000000000002E-2</v>
       </c>
@@ -5956,32 +4951,32 @@
         <f t="array" ref="G22">MMULT(C22:D22,MMULT($C$8:$D$9,TRANSPOSE(C22:D22)))</f>
         <v>2.7899999999999999E-3</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <f t="shared" si="1"/>
         <v>5.282045058497703E-2</v>
       </c>
-      <c r="I22" s="33">
+      <c r="I22" s="32">
         <f>(F22-$C$11)/H22</f>
         <v>0.18932061141568829</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="50">
+      <c r="B23" s="47">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="25">
         <f t="shared" ref="C23:C27" si="2">C22+20%</f>
         <v>0</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="25">
         <f t="shared" ref="D23:D27" si="3">1-C23</f>
         <v>1</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="25">
         <f t="shared" ref="E23:E27" si="4">SUM(C23:D23)</f>
         <v>1</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="25">
         <f t="shared" ref="F23:F27" si="5">SUMPRODUCT(C23:D23,$C$4:$D$4)</f>
         <v>3.5000000000000003E-2</v>
       </c>
@@ -5989,32 +4984,32 @@
         <f t="array" ref="G23">MMULT(C23:D23,MMULT($C$8:$D$9,TRANSPOSE(C23:D23)))</f>
         <v>1.2250000000000002E-3</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I23" s="33">
+      <c r="I23" s="32">
         <f t="shared" ref="I23:I28" si="6">(F23-$C$11)/H23</f>
         <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="50">
+      <c r="B24" s="47">
         <v>0.04</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="25">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="25">
         <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="25">
         <f t="shared" si="5"/>
         <v>4.0000000000000008E-2</v>
       </c>
@@ -6022,32 +5017,32 @@
         <f t="array" ref="G24">MMULT(C24:D24,MMULT($C$8:$D$9,TRANSPOSE(C24:D24)))</f>
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <f t="shared" si="1"/>
         <v>0.04</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <f t="shared" si="6"/>
         <v>0.50000000000000022</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="50">
+      <c r="B25" s="47">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="25">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="D25" s="26">
+      <c r="D25" s="25">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F25" s="26">
+      <c r="F25" s="25">
         <f t="shared" si="5"/>
         <v>4.4999999999999998E-2</v>
       </c>
@@ -6055,32 +5050,32 @@
         <f t="array" ref="G25">MMULT(C25:D25,MMULT($C$8:$D$9,TRANSPOSE(C25:D25)))</f>
         <v>3.9150000000000001E-3</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <f t="shared" si="1"/>
         <v>6.2569960843842629E-2</v>
       </c>
-      <c r="I25" s="33">
+      <c r="I25" s="32">
         <f t="shared" si="6"/>
         <v>0.39955275123782008</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="50">
+      <c r="B26" s="47">
         <v>0.05</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="25">
         <f t="shared" si="2"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="D26" s="26">
+      <c r="D26" s="25">
         <f t="shared" si="3"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F26" s="26">
+      <c r="F26" s="25">
         <f t="shared" si="5"/>
         <v>0.05</v>
       </c>
@@ -6088,32 +5083,32 @@
         <f t="array" ref="G26">MMULT(C26:D26,MMULT($C$8:$D$9,TRANSPOSE(C26:D26)))</f>
         <v>8.1700000000000019E-3</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <f t="shared" si="1"/>
         <v>9.0388052307813355E-2</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="32">
         <f t="shared" si="6"/>
         <v>0.33190227285610768</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="50">
+      <c r="B27" s="47">
         <v>5.5E-2</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="25">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="25">
         <f t="shared" si="3"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F27" s="26">
+      <c r="F27" s="25">
         <f t="shared" si="5"/>
         <v>5.5E-2</v>
       </c>
@@ -6121,75 +5116,75 @@
         <f t="array" ref="G27">MMULT(C27:D27,MMULT($C$8:$D$9,TRANSPOSE(C27:D27)))</f>
         <v>1.4364999999999999E-2</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="25">
         <f t="shared" si="1"/>
         <v>0.11985407794480753</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f t="shared" si="6"/>
         <v>0.29202177014049874</v>
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="51">
+      <c r="B28" s="48">
         <v>0.06</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="33">
         <v>1</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="33">
         <f>1-C28</f>
         <v>0</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f>SUM(C28:D28)</f>
         <v>1</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <f>SUMPRODUCT(C28:D28,$C$4:$D$4)</f>
         <v>0.06</v>
       </c>
-      <c r="G28" s="35">
+      <c r="G28" s="34">
         <f t="array" ref="G28">MMULT(C28:D28,MMULT($C$8:$D$9,TRANSPOSE(C28:D28)))</f>
         <v>2.2499999999999999E-2</v>
       </c>
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <f t="shared" si="6"/>
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="F29" s="26"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="F29" s="25"/>
       <c r="G29" s="17"/>
-      <c r="H29" s="26"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="17"/>
     </row>
     <row r="30" spans="2:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="45" t="s">
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="24" t="s">
+      <c r="H30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="24" t="s">
+      <c r="I30" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6197,13 +5192,13 @@
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="45">
         <v>0.13203429912742795</v>
       </c>
-      <c r="D31" s="47">
+      <c r="D31" s="45">
         <v>0.86796570087257197</v>
       </c>
-      <c r="E31" s="26">
+      <c r="E31" s="25">
         <f>SUM(C31:D31)</f>
         <v>0.99999999999999989</v>
       </c>
@@ -6211,7 +5206,7 @@
         <f>SUMPRODUCT(C31:D31,$C$4:$D$4)</f>
         <v>3.83008574781857E-2</v>
       </c>
-      <c r="G31" s="26">
+      <c r="G31" s="25">
         <f t="array" ref="G31">MMULT(C31:D31,MMULT($C$8:$D$9,TRANSPOSE(C31:D31)))</f>
         <v>1.2549495716381264E-3</v>
       </c>
@@ -6225,905 +5220,905 @@
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="F32" s="26"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="F32" s="25"/>
       <c r="G32" s="17"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="17"/>
     </row>
     <row r="33" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="F33" s="26"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="17"/>
     </row>
     <row r="34" spans="3:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="38" t="s">
+      <c r="D34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="39" t="s">
+      <c r="F34" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="40" t="s">
+      <c r="G34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="17"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="41">
+      <c r="C35" s="40">
         <v>1</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="25">
         <f>1-C35</f>
         <v>0</v>
       </c>
-      <c r="E35" s="48">
+      <c r="E35" s="25">
         <f>C35*$C$11+D35*$F$31</f>
         <v>0.02</v>
       </c>
-      <c r="F35" s="48">
+      <c r="F35" s="25">
         <f>D35*$H$31</f>
         <v>0</v>
       </c>
-      <c r="G35" s="52" t="e">
+      <c r="G35" s="49" t="e">
         <f>(E35-$C$11)/F35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="26"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="17"/>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="41">
+      <c r="C36" s="40">
         <v>0.6</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="25">
         <f t="shared" ref="D36:D39" si="8">1-C36</f>
         <v>0.4</v>
       </c>
-      <c r="E36" s="48">
+      <c r="E36" s="25">
         <f t="shared" ref="E36:E39" si="9">C36*$C$11+D36*$F$31</f>
         <v>2.7320342991274282E-2</v>
       </c>
-      <c r="F36" s="48">
+      <c r="F36" s="25">
         <f t="shared" ref="F36:F39" si="10">D36*$H$31</f>
         <v>1.417010696720742E-2</v>
       </c>
-      <c r="G36" s="42">
+      <c r="G36" s="41">
         <f t="shared" ref="G36:G39" si="11">(E36-$C$11)/F36</f>
         <v>0.51660463878043272</v>
       </c>
-      <c r="H36" s="26"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="17"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="41">
+      <c r="C37" s="40">
         <v>0.2</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="25">
         <f t="shared" si="8"/>
         <v>0.8</v>
       </c>
-      <c r="E37" s="48">
+      <c r="E37" s="25">
         <f t="shared" si="9"/>
         <v>3.4640685982548561E-2</v>
       </c>
-      <c r="F37" s="48">
+      <c r="F37" s="25">
         <f t="shared" si="10"/>
         <v>2.834021393441484E-2</v>
       </c>
-      <c r="G37" s="42">
+      <c r="G37" s="41">
         <f t="shared" si="11"/>
         <v>0.51660463878043261</v>
       </c>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="17"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="41">
+      <c r="C38" s="40">
         <v>-0.2</v>
       </c>
-      <c r="D38" s="48">
+      <c r="D38" s="25">
         <f t="shared" si="8"/>
         <v>1.2</v>
       </c>
-      <c r="E38" s="48">
+      <c r="E38" s="25">
         <f t="shared" si="9"/>
         <v>4.1961028973822839E-2</v>
       </c>
-      <c r="F38" s="48">
+      <c r="F38" s="25">
         <f t="shared" si="10"/>
         <v>4.2510320901622253E-2</v>
       </c>
-      <c r="G38" s="42">
+      <c r="G38" s="41">
         <f t="shared" si="11"/>
         <v>0.51660463878043261</v>
       </c>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="17"/>
     </row>
     <row r="39" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="43">
+      <c r="C39" s="42">
         <v>-0.6</v>
       </c>
-      <c r="D39" s="34">
+      <c r="D39" s="33">
         <f t="shared" si="8"/>
         <v>1.6</v>
       </c>
-      <c r="E39" s="34">
+      <c r="E39" s="33">
         <f t="shared" si="9"/>
         <v>4.9281371965097118E-2</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="33">
         <f t="shared" si="10"/>
         <v>5.668042786882968E-2</v>
       </c>
-      <c r="G39" s="44">
+      <c r="G39" s="43">
         <f t="shared" si="11"/>
         <v>0.5166046387804325</v>
       </c>
-      <c r="H39" s="26"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="17"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="17"/>
-      <c r="H40" s="26"/>
+      <c r="H40" s="25"/>
       <c r="I40" s="17"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="F41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="17"/>
-      <c r="H41" s="26"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="17"/>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="F42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="F42" s="25"/>
       <c r="G42" s="17"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="17"/>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="F43" s="26"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="17"/>
-      <c r="H43" s="26"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="17"/>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="F44" s="25"/>
       <c r="G44" s="17"/>
-      <c r="H44" s="26"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="17"/>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="F45" s="26"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="F45" s="25"/>
       <c r="G45" s="17"/>
-      <c r="H45" s="26"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="17"/>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="F46" s="26"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="F46" s="25"/>
       <c r="G46" s="17"/>
-      <c r="H46" s="26"/>
+      <c r="H46" s="25"/>
       <c r="I46" s="17"/>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="F47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="17"/>
-      <c r="H47" s="26"/>
+      <c r="H47" s="25"/>
       <c r="I47" s="17"/>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="F48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="F48" s="25"/>
       <c r="G48" s="17"/>
-      <c r="H48" s="26"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="17"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="F49" s="25"/>
       <c r="G49" s="17"/>
-      <c r="H49" s="26"/>
+      <c r="H49" s="25"/>
       <c r="I49" s="17"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="17"/>
-      <c r="H50" s="26"/>
+      <c r="H50" s="25"/>
       <c r="I50" s="17"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="F51" s="26"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="17"/>
-      <c r="H51" s="26"/>
+      <c r="H51" s="25"/>
       <c r="I51" s="17"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="F52" s="25"/>
       <c r="G52" s="17"/>
-      <c r="H52" s="26"/>
+      <c r="H52" s="25"/>
       <c r="I52" s="17"/>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="F53" s="25"/>
       <c r="G53" s="17"/>
-      <c r="H53" s="26"/>
+      <c r="H53" s="25"/>
       <c r="I53" s="17"/>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="F54" s="26"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="F54" s="25"/>
       <c r="G54" s="17"/>
-      <c r="H54" s="26"/>
+      <c r="H54" s="25"/>
       <c r="I54" s="17"/>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="F55" s="26"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="F55" s="25"/>
       <c r="G55" s="17"/>
-      <c r="H55" s="26"/>
+      <c r="H55" s="25"/>
       <c r="I55" s="17"/>
     </row>
     <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="F56" s="26"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="F56" s="25"/>
       <c r="G56" s="17"/>
-      <c r="H56" s="26"/>
+      <c r="H56" s="25"/>
       <c r="I56" s="17"/>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="F57" s="26"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="17"/>
-      <c r="H57" s="26"/>
+      <c r="H57" s="25"/>
       <c r="I57" s="17"/>
     </row>
     <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="F58" s="26"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="17"/>
-      <c r="H58" s="26"/>
+      <c r="H58" s="25"/>
       <c r="I58" s="17"/>
     </row>
     <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="F59" s="26"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="17"/>
-      <c r="H59" s="26"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="17"/>
     </row>
     <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="F60" s="26"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="17"/>
-      <c r="H60" s="26"/>
+      <c r="H60" s="25"/>
       <c r="I60" s="17"/>
     </row>
     <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="F61" s="26"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="F61" s="25"/>
       <c r="G61" s="17"/>
-      <c r="H61" s="26"/>
+      <c r="H61" s="25"/>
       <c r="I61" s="17"/>
     </row>
     <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="F62" s="26"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="F62" s="25"/>
       <c r="G62" s="17"/>
-      <c r="H62" s="26"/>
+      <c r="H62" s="25"/>
       <c r="I62" s="17"/>
     </row>
     <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="F63" s="26"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="F63" s="25"/>
       <c r="G63" s="17"/>
-      <c r="H63" s="26"/>
+      <c r="H63" s="25"/>
       <c r="I63" s="17"/>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="F64" s="26"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="F64" s="25"/>
       <c r="G64" s="17"/>
-      <c r="H64" s="26"/>
+      <c r="H64" s="25"/>
       <c r="I64" s="17"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="F65" s="26"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="17"/>
-      <c r="H65" s="26"/>
+      <c r="H65" s="25"/>
       <c r="I65" s="17"/>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="F66" s="26"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="F66" s="25"/>
       <c r="G66" s="17"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="25"/>
       <c r="I66" s="17"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="F67" s="26"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="F67" s="25"/>
       <c r="G67" s="17"/>
-      <c r="H67" s="26"/>
+      <c r="H67" s="25"/>
       <c r="I67" s="17"/>
     </row>
     <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="F68" s="26"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="F68" s="25"/>
       <c r="G68" s="17"/>
-      <c r="H68" s="26"/>
+      <c r="H68" s="25"/>
       <c r="I68" s="17"/>
     </row>
     <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="F69" s="26"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="F69" s="25"/>
       <c r="G69" s="17"/>
-      <c r="H69" s="26"/>
+      <c r="H69" s="25"/>
       <c r="I69" s="17"/>
     </row>
     <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="F70" s="26"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="17"/>
-      <c r="H70" s="26"/>
+      <c r="H70" s="25"/>
       <c r="I70" s="17"/>
     </row>
     <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="F71" s="26"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="17"/>
-      <c r="H71" s="26"/>
+      <c r="H71" s="25"/>
       <c r="I71" s="17"/>
     </row>
     <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="F72" s="26"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="17"/>
-      <c r="H72" s="26"/>
+      <c r="H72" s="25"/>
       <c r="I72" s="17"/>
     </row>
     <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="F73" s="26"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="26"/>
+      <c r="H73" s="25"/>
       <c r="I73" s="17"/>
     </row>
     <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="F74" s="26"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="26"/>
+      <c r="H74" s="25"/>
       <c r="I74" s="17"/>
     </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="F75" s="26"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="17"/>
-      <c r="H75" s="26"/>
+      <c r="H75" s="25"/>
       <c r="I75" s="17"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="F76" s="26"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="F76" s="25"/>
       <c r="G76" s="17"/>
-      <c r="H76" s="26"/>
+      <c r="H76" s="25"/>
       <c r="I76" s="17"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="26"/>
-      <c r="D77" s="26"/>
-      <c r="F77" s="26"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="F77" s="25"/>
       <c r="G77" s="17"/>
-      <c r="H77" s="26"/>
+      <c r="H77" s="25"/>
       <c r="I77" s="17"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="F78" s="26"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="17"/>
-      <c r="H78" s="26"/>
+      <c r="H78" s="25"/>
       <c r="I78" s="17"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="F79" s="26"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="17"/>
-      <c r="H79" s="26"/>
+      <c r="H79" s="25"/>
       <c r="I79" s="17"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="F80" s="26"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="F80" s="25"/>
       <c r="G80" s="17"/>
-      <c r="H80" s="26"/>
+      <c r="H80" s="25"/>
       <c r="I80" s="17"/>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="26"/>
-      <c r="D81" s="26"/>
-      <c r="F81" s="26"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
+      <c r="F81" s="25"/>
       <c r="G81" s="17"/>
-      <c r="H81" s="26"/>
+      <c r="H81" s="25"/>
       <c r="I81" s="17"/>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="26"/>
-      <c r="D82" s="26"/>
-      <c r="F82" s="26"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="17"/>
-      <c r="H82" s="26"/>
+      <c r="H82" s="25"/>
       <c r="I82" s="17"/>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="F83" s="26"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="F83" s="25"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="26"/>
+      <c r="H83" s="25"/>
       <c r="I83" s="17"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="F84" s="26"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="F84" s="25"/>
       <c r="G84" s="17"/>
-      <c r="H84" s="26"/>
+      <c r="H84" s="25"/>
       <c r="I84" s="17"/>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="26"/>
-      <c r="D85" s="26"/>
-      <c r="F85" s="26"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="F85" s="25"/>
       <c r="G85" s="17"/>
-      <c r="H85" s="26"/>
+      <c r="H85" s="25"/>
       <c r="I85" s="17"/>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="26"/>
-      <c r="D86" s="26"/>
-      <c r="F86" s="26"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="17"/>
-      <c r="H86" s="26"/>
+      <c r="H86" s="25"/>
       <c r="I86" s="17"/>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="F87" s="26"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="F87" s="25"/>
       <c r="G87" s="17"/>
-      <c r="H87" s="26"/>
+      <c r="H87" s="25"/>
       <c r="I87" s="17"/>
     </row>
     <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="F88" s="26"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="F88" s="25"/>
       <c r="G88" s="17"/>
-      <c r="H88" s="26"/>
+      <c r="H88" s="25"/>
       <c r="I88" s="17"/>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="F89" s="26"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="17"/>
-      <c r="H89" s="26"/>
+      <c r="H89" s="25"/>
       <c r="I89" s="17"/>
     </row>
     <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="26"/>
-      <c r="D90" s="26"/>
-      <c r="F90" s="26"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="17"/>
-      <c r="H90" s="26"/>
+      <c r="H90" s="25"/>
       <c r="I90" s="17"/>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="F91" s="26"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="17"/>
-      <c r="H91" s="26"/>
+      <c r="H91" s="25"/>
       <c r="I91" s="17"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="F92" s="26"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="17"/>
-      <c r="H92" s="26"/>
+      <c r="H92" s="25"/>
       <c r="I92" s="17"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="26"/>
-      <c r="D93" s="26"/>
-      <c r="F93" s="26"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
+      <c r="F93" s="25"/>
       <c r="G93" s="17"/>
-      <c r="H93" s="26"/>
+      <c r="H93" s="25"/>
       <c r="I93" s="17"/>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="26"/>
-      <c r="D94" s="26"/>
-      <c r="F94" s="26"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
+      <c r="F94" s="25"/>
       <c r="G94" s="17"/>
-      <c r="H94" s="26"/>
+      <c r="H94" s="25"/>
       <c r="I94" s="17"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="F95" s="26"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="F95" s="25"/>
       <c r="G95" s="17"/>
-      <c r="H95" s="26"/>
+      <c r="H95" s="25"/>
       <c r="I95" s="17"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="F96" s="26"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="F96" s="25"/>
       <c r="G96" s="17"/>
-      <c r="H96" s="26"/>
+      <c r="H96" s="25"/>
       <c r="I96" s="17"/>
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="F97" s="26"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="17"/>
-      <c r="H97" s="26"/>
+      <c r="H97" s="25"/>
       <c r="I97" s="17"/>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="26"/>
-      <c r="D98" s="26"/>
-      <c r="F98" s="26"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="17"/>
-      <c r="H98" s="26"/>
+      <c r="H98" s="25"/>
       <c r="I98" s="17"/>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="F99" s="26"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="F99" s="25"/>
       <c r="G99" s="17"/>
-      <c r="H99" s="26"/>
+      <c r="H99" s="25"/>
       <c r="I99" s="17"/>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="F100" s="26"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="F100" s="25"/>
       <c r="G100" s="17"/>
-      <c r="H100" s="26"/>
+      <c r="H100" s="25"/>
       <c r="I100" s="17"/>
     </row>
     <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="F101" s="26"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
+      <c r="F101" s="25"/>
       <c r="G101" s="17"/>
-      <c r="H101" s="26"/>
+      <c r="H101" s="25"/>
       <c r="I101" s="17"/>
     </row>
     <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="F102" s="26"/>
+      <c r="C102" s="25"/>
+      <c r="D102" s="25"/>
+      <c r="F102" s="25"/>
       <c r="G102" s="17"/>
-      <c r="H102" s="26"/>
+      <c r="H102" s="25"/>
       <c r="I102" s="17"/>
     </row>
     <row r="103" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="F103" s="26"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="F103" s="25"/>
       <c r="G103" s="17"/>
-      <c r="H103" s="26"/>
+      <c r="H103" s="25"/>
       <c r="I103" s="17"/>
     </row>
     <row r="104" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="F104" s="26"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="17"/>
-      <c r="H104" s="26"/>
+      <c r="H104" s="25"/>
       <c r="I104" s="17"/>
     </row>
     <row r="105" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="F105" s="26"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="25"/>
+      <c r="F105" s="25"/>
       <c r="G105" s="17"/>
-      <c r="H105" s="26"/>
+      <c r="H105" s="25"/>
       <c r="I105" s="17"/>
     </row>
     <row r="106" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="F106" s="26"/>
+      <c r="C106" s="25"/>
+      <c r="D106" s="25"/>
+      <c r="F106" s="25"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="26"/>
+      <c r="H106" s="25"/>
       <c r="I106" s="17"/>
     </row>
     <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="F107" s="26"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="F107" s="25"/>
       <c r="G107" s="17"/>
-      <c r="H107" s="26"/>
+      <c r="H107" s="25"/>
       <c r="I107" s="17"/>
     </row>
     <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="F108" s="26"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="F108" s="25"/>
       <c r="G108" s="17"/>
-      <c r="H108" s="26"/>
+      <c r="H108" s="25"/>
       <c r="I108" s="17"/>
     </row>
     <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="F109" s="26"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="25"/>
+      <c r="F109" s="25"/>
       <c r="G109" s="17"/>
-      <c r="H109" s="26"/>
+      <c r="H109" s="25"/>
       <c r="I109" s="17"/>
     </row>
     <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="F110" s="26"/>
+      <c r="C110" s="25"/>
+      <c r="D110" s="25"/>
+      <c r="F110" s="25"/>
       <c r="G110" s="17"/>
-      <c r="H110" s="26"/>
+      <c r="H110" s="25"/>
       <c r="I110" s="17"/>
     </row>
     <row r="111" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="F111" s="26"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="F111" s="25"/>
       <c r="G111" s="17"/>
-      <c r="H111" s="26"/>
+      <c r="H111" s="25"/>
       <c r="I111" s="17"/>
     </row>
     <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="F112" s="26"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="F112" s="25"/>
       <c r="G112" s="17"/>
-      <c r="H112" s="26"/>
+      <c r="H112" s="25"/>
       <c r="I112" s="17"/>
     </row>
     <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="F113" s="26"/>
+      <c r="C113" s="25"/>
+      <c r="D113" s="25"/>
+      <c r="F113" s="25"/>
       <c r="G113" s="17"/>
-      <c r="H113" s="26"/>
+      <c r="H113" s="25"/>
       <c r="I113" s="17"/>
     </row>
     <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="F114" s="26"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="25"/>
+      <c r="F114" s="25"/>
       <c r="G114" s="17"/>
-      <c r="H114" s="26"/>
+      <c r="H114" s="25"/>
       <c r="I114" s="17"/>
     </row>
     <row r="115" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="F115" s="26"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="F115" s="25"/>
       <c r="G115" s="17"/>
-      <c r="H115" s="26"/>
+      <c r="H115" s="25"/>
       <c r="I115" s="17"/>
     </row>
     <row r="116" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="F116" s="26"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="F116" s="25"/>
       <c r="G116" s="17"/>
-      <c r="H116" s="26"/>
+      <c r="H116" s="25"/>
       <c r="I116" s="17"/>
     </row>
     <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="26"/>
-      <c r="D117" s="26"/>
-      <c r="F117" s="26"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="25"/>
+      <c r="F117" s="25"/>
       <c r="G117" s="17"/>
-      <c r="H117" s="26"/>
+      <c r="H117" s="25"/>
       <c r="I117" s="17"/>
     </row>
     <row r="118" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="26"/>
-      <c r="D118" s="26"/>
-      <c r="F118" s="26"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="F118" s="25"/>
       <c r="G118" s="17"/>
-      <c r="H118" s="26"/>
+      <c r="H118" s="25"/>
       <c r="I118" s="17"/>
     </row>
     <row r="119" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="26"/>
-      <c r="D119" s="26"/>
-      <c r="F119" s="26"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="F119" s="25"/>
       <c r="G119" s="17"/>
-      <c r="H119" s="26"/>
+      <c r="H119" s="25"/>
       <c r="I119" s="17"/>
     </row>
     <row r="120" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="26"/>
-      <c r="D120" s="26"/>
-      <c r="F120" s="26"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="F120" s="25"/>
       <c r="G120" s="17"/>
-      <c r="H120" s="26"/>
+      <c r="H120" s="25"/>
       <c r="I120" s="17"/>
     </row>
     <row r="121" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="26"/>
-      <c r="D121" s="26"/>
-      <c r="F121" s="26"/>
+      <c r="C121" s="25"/>
+      <c r="D121" s="25"/>
+      <c r="F121" s="25"/>
       <c r="G121" s="17"/>
-      <c r="H121" s="26"/>
+      <c r="H121" s="25"/>
       <c r="I121" s="17"/>
     </row>
     <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="26"/>
-      <c r="D122" s="26"/>
-      <c r="F122" s="26"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="F122" s="25"/>
       <c r="G122" s="17"/>
-      <c r="H122" s="26"/>
+      <c r="H122" s="25"/>
       <c r="I122" s="17"/>
     </row>
     <row r="123" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="26"/>
-      <c r="D123" s="26"/>
-      <c r="F123" s="26"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="F123" s="25"/>
       <c r="G123" s="17"/>
-      <c r="H123" s="26"/>
+      <c r="H123" s="25"/>
       <c r="I123" s="17"/>
     </row>
     <row r="124" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="26"/>
-      <c r="D124" s="26"/>
-      <c r="F124" s="26"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="F124" s="25"/>
       <c r="G124" s="17"/>
-      <c r="H124" s="26"/>
+      <c r="H124" s="25"/>
       <c r="I124" s="17"/>
     </row>
     <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="26"/>
-      <c r="D125" s="26"/>
-      <c r="F125" s="26"/>
+      <c r="C125" s="25"/>
+      <c r="D125" s="25"/>
+      <c r="F125" s="25"/>
       <c r="G125" s="17"/>
-      <c r="H125" s="26"/>
+      <c r="H125" s="25"/>
       <c r="I125" s="17"/>
     </row>
     <row r="126" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="26"/>
-      <c r="D126" s="26"/>
-      <c r="F126" s="26"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="25"/>
+      <c r="F126" s="25"/>
       <c r="G126" s="17"/>
-      <c r="H126" s="26"/>
+      <c r="H126" s="25"/>
       <c r="I126" s="17"/>
     </row>
     <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="26"/>
-      <c r="D127" s="26"/>
-      <c r="F127" s="26"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="F127" s="25"/>
       <c r="G127" s="17"/>
-      <c r="H127" s="26"/>
+      <c r="H127" s="25"/>
       <c r="I127" s="17"/>
     </row>
     <row r="128" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="26"/>
-      <c r="D128" s="26"/>
-      <c r="F128" s="26"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="F128" s="25"/>
       <c r="G128" s="17"/>
-      <c r="H128" s="26"/>
+      <c r="H128" s="25"/>
       <c r="I128" s="17"/>
     </row>
     <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
-      <c r="F129" s="26"/>
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="F129" s="25"/>
       <c r="G129" s="17"/>
-      <c r="H129" s="26"/>
+      <c r="H129" s="25"/>
       <c r="I129" s="17"/>
     </row>
     <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="26"/>
-      <c r="D130" s="26"/>
-      <c r="F130" s="26"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="25"/>
+      <c r="F130" s="25"/>
       <c r="G130" s="17"/>
-      <c r="H130" s="26"/>
+      <c r="H130" s="25"/>
       <c r="I130" s="17"/>
     </row>
     <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="26"/>
-      <c r="D131" s="26"/>
-      <c r="F131" s="26"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="F131" s="25"/>
       <c r="G131" s="17"/>
-      <c r="H131" s="26"/>
+      <c r="H131" s="25"/>
       <c r="I131" s="17"/>
     </row>
     <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
-      <c r="F132" s="26"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="F132" s="25"/>
       <c r="G132" s="17"/>
-      <c r="H132" s="26"/>
+      <c r="H132" s="25"/>
       <c r="I132" s="17"/>
     </row>
     <row r="133" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="F133" s="26"/>
+      <c r="C133" s="25"/>
+      <c r="D133" s="25"/>
+      <c r="F133" s="25"/>
       <c r="G133" s="17"/>
-      <c r="H133" s="26"/>
+      <c r="H133" s="25"/>
       <c r="I133" s="17"/>
     </row>
   </sheetData>
